--- a/Database Articles/Database Dependencies/Database_Dependency_Analysis.xlsx
+++ b/Database Articles/Database Dependencies/Database_Dependency_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cb235b9eaced6a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smpet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61793517-915C-44F1-8C51-F6EADCB74795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB7E30-D5FD-4EA2-8ABE-B7D5B528D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD8376DA-3443-4C81-86D0-1E7D675BF7B2}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23010" windowHeight="11970" activeTab="1" xr2:uid="{FD8376DA-3443-4C81-86D0-1E7D675BF7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="dependency_analysis" sheetId="4" r:id="rId1"/>
@@ -141,51 +141,27 @@
     <t>01</t>
   </si>
   <si>
-    <t>02/04/05/06/09/11/13/31/32</t>
-  </si>
-  <si>
-    <t>03/08</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>06/20</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>11/14</t>
-  </si>
-  <si>
-    <t>12/20,23</t>
-  </si>
-  <si>
-    <t>12/23</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>21/22</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>28/29</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -295,6 +271,30 @@
   </si>
   <si>
     <t>XML Methods</t>
+  </si>
+  <si>
+    <t>12, 20, 23</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>28, 29</t>
+  </si>
+  <si>
+    <t>12, 23</t>
+  </si>
+  <si>
+    <t>02, 04, 05, 06, 09, 11, 13, 31, 32</t>
+  </si>
+  <si>
+    <t>03, 08</t>
+  </si>
+  <si>
+    <t>06, 20</t>
+  </si>
+  <si>
+    <t>11, 14</t>
   </si>
 </sst>
 </file>
@@ -330,9 +330,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,12 +759,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552015F-9111-4DB2-91F8-CCBDB5586B75}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -848,7 +847,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2">
@@ -863,7 +862,7 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
@@ -872,7 +871,7 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2">
@@ -907,8 +906,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
+      <c r="B3" t="s">
+        <v>75</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -922,7 +921,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3">
@@ -931,7 +930,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3">
@@ -966,8 +965,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -981,7 +980,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4">
@@ -990,7 +989,7 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4">
@@ -1025,8 +1024,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1040,7 +1039,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
       <c r="H5">
@@ -1049,7 +1048,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5">
@@ -1084,8 +1083,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1099,7 +1098,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6">
@@ -1108,7 +1107,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6">
@@ -1143,8 +1142,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1158,7 +1157,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7">
@@ -1167,7 +1166,7 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
@@ -1202,8 +1201,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
+      <c r="B8" t="s">
+        <v>77</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1217,7 +1216,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8">
@@ -1226,7 +1225,7 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
@@ -1261,8 +1260,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1276,7 +1275,7 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9">
@@ -1285,7 +1284,7 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
@@ -1320,8 +1319,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>30</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1335,7 +1334,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10">
@@ -1344,7 +1343,7 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
@@ -1379,8 +1378,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
+      <c r="B11" t="s">
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1394,7 +1393,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11">
@@ -1403,7 +1402,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
@@ -1438,8 +1437,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
+      <c r="B12" t="s">
+        <v>71</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1453,7 +1452,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12">
@@ -1462,7 +1461,7 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
@@ -1497,8 +1496,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1512,7 +1511,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13">
@@ -1521,7 +1520,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
@@ -1556,8 +1555,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
+      <c r="B14" t="s">
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1571,7 +1570,7 @@
       <c r="F14">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14">
@@ -1580,7 +1579,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
@@ -1615,8 +1614,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1630,7 +1629,7 @@
       <c r="F15">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15">
@@ -1639,7 +1638,7 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
@@ -1674,8 +1673,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
+      <c r="B16" t="s">
+        <v>72</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1689,7 +1688,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16">
@@ -1698,7 +1697,7 @@
       <c r="I16">
         <v>6</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16">
@@ -1733,8 +1732,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1748,7 +1747,7 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17">
@@ -1757,7 +1756,7 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
@@ -1792,8 +1791,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1807,7 +1806,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18">
@@ -1816,7 +1815,7 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
@@ -1851,8 +1850,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
+      <c r="B19" t="s">
+        <v>73</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1866,7 +1865,7 @@
       <c r="F19">
         <v>7</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>23</v>
       </c>
       <c r="H19">
@@ -1875,7 +1874,7 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
@@ -1910,8 +1909,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1925,7 +1924,7 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20">
@@ -1934,7 +1933,7 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
@@ -1969,8 +1968,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1984,7 +1983,7 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21">
@@ -1993,7 +1992,7 @@
       <c r="I21">
         <v>10</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>25</v>
       </c>
       <c r="K21">
@@ -2028,8 +2027,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
+      <c r="B22" t="s">
+        <v>36</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2043,7 +2042,7 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22">
@@ -2052,7 +2051,7 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
@@ -2095,9 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662FD1DD-36B2-4388-8B36-1E6985F86CD7}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2107,266 +2104,266 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
+      <c r="B14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
+      <c r="B18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
+      <c r="B19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
+      <c r="B20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
+      <c r="B21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
+      <c r="B22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>69</v>
+      <c r="B24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
+      <c r="B25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
+      <c r="B26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
+      <c r="B27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
+      <c r="B28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
+      <c r="B29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
+      <c r="B30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
+      <c r="B31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
+      <c r="B32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
+      <c r="B33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
